--- a/Shravya_Vtiger_Pages_Webelements.xlsx
+++ b/Shravya_Vtiger_Pages_Webelements.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15EF9C-9965-477B-A76C-98FC443E4F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B7C09BB1-9FF8-44BB-94B7-B000183B1A28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sr No.</t>
   </si>
@@ -40,13 +34,22 @@
   </si>
   <si>
     <t>Attribute_Value</t>
+  </si>
+  <si>
+    <t>ContactInfo</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>SamplePage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -212,7 +215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,21 +409,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76126BC1-9BD0-4D9F-8A78-6D96748076B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -429,7 +432,7 @@
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,147 +449,159 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
